--- a/src/resources/data/questions.xlsx
+++ b/src/resources/data/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo.DESKTOP-EAORNA8\Documents\00 Current 2nd Year - Midyear\CMSC 13\Retrograde v.0.3\src\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64A6C9A-0ACB-4D43-8FAE-D8A1E4562806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B4E671-83AF-4CF0-9D8F-97881555D49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{65101525-EB36-406F-A943-B6C5A544D765}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{65101525-EB36-406F-A943-B6C5A544D765}"/>
   </bookViews>
   <sheets>
     <sheet name="Theoretical" sheetId="1" r:id="rId1"/>
@@ -579,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA461D5C-247E-4987-890A-35906D87E6A1}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,6 +1229,615 @@
         <v>57</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1237,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D505EFB-0CD9-4B3A-8AB4-C7C5B85AAA7B}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="A2:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,615 +1887,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
